--- a/study_2/concat_and_first_ob_experiments/FinalResultComputation/ResultsSummary/BL-Exp-Results-LUCENE.xlsx
+++ b/study_2/concat_and_first_ob_experiments/FinalResultComputation/ResultsSummary/BL-Exp-Results-LUCENE.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Education/GitHub/Toward-Automating-the-Localization-of-Buggy-UIs-Anonymized/study_2/concat_and_first_ob_experiments/FinalResultComputation/ResultsSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC3FEF79-2A9D-5643-8110-32B326A88112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D93AB-355D-614D-9D5A-BC69C37F2EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concat-OB-3-Screens" sheetId="1" r:id="rId1"/>
     <sheet name="Concat-OB-4-Screens" sheetId="2" r:id="rId2"/>
     <sheet name="Individual-OB-3-Screens" sheetId="3" r:id="rId3"/>
     <sheet name="Individual-OB-4-Screens" sheetId="5" r:id="rId4"/>
-    <sheet name="Title-OB-3-Screens" sheetId="7" r:id="rId5"/>
-    <sheet name="Title-OB-4-Screens" sheetId="8" r:id="rId6"/>
+    <sheet name="First-OB-3-Screens" sheetId="7" r:id="rId5"/>
+    <sheet name="First-OB-4-Screens" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -26110,7 +26109,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V37" sqref="V37"/>
+      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
